--- a/SpaOnline/EventStorming/Pagos - Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Pagos - Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CB051D-F321-463C-A441-C5647C62C4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9922C598-8FEF-407F-9D72-EEDACD42F869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="296" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="115">
   <si>
     <t>Descripción</t>
   </si>
@@ -167,12 +167,6 @@
     <t>Descripción contexto</t>
   </si>
   <si>
-    <t>Inventario</t>
-  </si>
-  <si>
-    <t>Contexto que contiene la informacion del inventario, según el producto y sucursal</t>
-  </si>
-  <si>
     <t>Administrador General</t>
   </si>
   <si>
@@ -230,21 +224,9 @@
     <t>Pol-Pagos-003</t>
   </si>
   <si>
-    <t>Pol-Pagos-005</t>
-  </si>
-  <si>
-    <t>Pol-Pagos-006</t>
-  </si>
-  <si>
     <t>Pol-Pagos-004</t>
   </si>
   <si>
-    <t xml:space="preserve">Pol-Pagos-008: </t>
-  </si>
-  <si>
-    <t>Pol-Pagos-007</t>
-  </si>
-  <si>
     <t>Pagos Creado</t>
   </si>
   <si>
@@ -263,15 +245,9 @@
     <t>Comando que se encarga de crear un pago nuevo, en cada sucursal respectiva</t>
   </si>
   <si>
-    <t xml:space="preserve">Comando que se encarga de Modificar los pagos del cliente validando que lo ingresado este correcto  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Comando encargado de consultar los pagos que tienen las sucursales </t>
   </si>
   <si>
-    <t>Comando encargado de eliminar los pagos por codigo o por id, si este fue por un error</t>
-  </si>
-  <si>
     <t>No debe existir otro pago con el mismo codigo</t>
   </si>
   <si>
@@ -281,15 +257,6 @@
     <t>Debe de exisitir una sucursal a la cual debe estar asociado el pago</t>
   </si>
   <si>
-    <t>No debe existir otro pago, a excepcion de que sea el mismo pago que se esta modificando</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Debe existir el pago que se esta modificando </t>
-  </si>
-  <si>
-    <t>Que el pago exista y fuera comprobado como un error</t>
-  </si>
-  <si>
     <t>Crear Factura</t>
   </si>
   <si>
@@ -450,6 +417,12 @@
   </si>
   <si>
     <t>Que el tipo de pago exista</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pol-Pagos-005 </t>
+  </si>
+  <si>
+    <t>Contexto que contiene la informacion de los pagos</t>
   </si>
 </sst>
 </file>
@@ -837,78 +810,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -925,14 +826,86 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1315,7 +1288,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0EFF4C49-240B-4036-BD62-669D42F23E67}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
@@ -1338,9 +1311,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{02388B9D-0652-49D5-BF62-A59B793D6DFC}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B15" sqref="B15"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1356,21 +1329,21 @@
       <c r="A1" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B1" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="21"/>
+      <c r="B1" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="C1" s="26"/>
+      <c r="D1" s="27"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="B2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="C2" s="22"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" s="28"/>
+      <c r="D2" s="29"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="17" t="s">
@@ -1387,45 +1360,45 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="44" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>35</v>
+      <c r="A4" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" s="21" t="s">
+        <v>33</v>
       </c>
       <c r="C4" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D4" s="19" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="20" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A5" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="B5" s="45" t="s">
-        <v>37</v>
+      <c r="B5" s="21" t="s">
+        <v>35</v>
       </c>
       <c r="C5" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>39</v>
+      <c r="A6" s="20" t="s">
+        <v>36</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="C6" s="19" t="s">
         <v>26</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -1441,10 +1414,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{235BA608-57CC-45B0-8234-10CA49C3B004}">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N13"/>
   <sheetViews>
-    <sheetView topLeftCell="F7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7:K9"/>
+    <sheetView topLeftCell="A2" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1471,84 +1444,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
+      <c r="B2" s="49" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Pagos</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="51" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la informacion de los pagos que recibe el Spa</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1558,52 +1531,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="48" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1616,341 +1589,189 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="23" t="s">
+        <v>45</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
+        <v>49</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="24" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30" t="s">
+        <v>48</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="31"/>
+      <c r="H11" s="31"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="M11" s="33"/>
+    </row>
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="30" t="s">
+        <v>113</v>
+      </c>
+      <c r="H12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="30" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" s="34" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="24" t="s">
-        <v>43</v>
-      </c>
-      <c r="C7" s="24" t="s">
-        <v>60</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="47" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" s="47" t="s">
-        <v>64</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
-        <v>55</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H8" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="47" t="s">
-        <v>49</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>66</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="48" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>44</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>61</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="47" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>67</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="M10" s="48" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="47" t="s">
-        <v>48</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>65</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="M11" s="50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="47" t="s">
-        <v>51</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>68</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>45</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>62</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
-        <v>58</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="47" t="s">
-        <v>56</v>
-      </c>
-      <c r="M14" s="52"/>
-    </row>
-    <row r="15" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24" t="s">
-        <v>53</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24" t="s">
-        <v>59</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="1:13" s="49" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>34</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24" t="s">
-        <v>54</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>69</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24" t="s">
-        <v>56</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="47" t="s">
-        <v>55</v>
-      </c>
-      <c r="M17" s="48" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="49" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="47" t="s">
-        <v>58</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="49" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="47" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="51"/>
+      <c r="B13" s="31"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="31"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="31"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="31"/>
+      <c r="M13" s="35"/>
     </row>
   </sheetData>
-  <mergeCells count="62">
+  <mergeCells count="41">
     <mergeCell ref="D5:D6"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
@@ -1974,45 +1795,24 @@
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
     <mergeCell ref="D7:D9"/>
     <mergeCell ref="B7:B9"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="F10:F12"/>
-    <mergeCell ref="E10:E12"/>
-    <mergeCell ref="D10:D12"/>
-    <mergeCell ref="C10:C12"/>
-    <mergeCell ref="B10:B12"/>
-    <mergeCell ref="J10:J12"/>
-    <mergeCell ref="K10:K12"/>
-    <mergeCell ref="L11:L12"/>
-    <mergeCell ref="M11:M12"/>
-    <mergeCell ref="J13:J16"/>
-    <mergeCell ref="K13:K16"/>
-    <mergeCell ref="L15:L16"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="M15:M16"/>
-    <mergeCell ref="I10:I12"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="H15:H16"/>
-    <mergeCell ref="B13:B16"/>
-    <mergeCell ref="C13:C16"/>
-    <mergeCell ref="D13:D16"/>
-    <mergeCell ref="E13:E16"/>
-    <mergeCell ref="F13:F16"/>
-    <mergeCell ref="I13:I16"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="B17:B19"/>
-    <mergeCell ref="C17:C19"/>
-    <mergeCell ref="D17:D19"/>
-    <mergeCell ref="E17:E19"/>
-    <mergeCell ref="F17:F19"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="H13:H14"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="G17:G19"/>
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -2055,84 +1855,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
+      <c r="B2" s="49" t="str">
         <f>+'Listado Objetos de Dominio'!A5</f>
         <v>Factura</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="51" t="str">
         <f>+'Listado Objetos de Dominio'!B5</f>
         <v>Objeto de dominio que contiene la informacion de las reservas de las citas del Spa</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2142,52 +1942,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="48" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2200,346 +2000,341 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>76</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="24" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>60</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>81</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>84</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30" t="s">
+        <v>74</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30" t="s">
+        <v>69</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="1:13" s="25" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>62</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>87</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="47" t="s">
+      <c r="H17" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="23" t="s">
+        <v>71</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="25" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="23" t="s">
         <v>74</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>91</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="47" t="s">
+      <c r="M18" s="34" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="25" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="23" t="s">
         <v>75</v>
       </c>
-      <c r="H8" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="47" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>93</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="48" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="47" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>94</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="M10" s="48" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="47" t="s">
-        <v>75</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>92</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="M11" s="50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="47" t="s">
-        <v>78</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>95</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>72</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24" t="s">
-        <v>79</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
-        <v>85</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="47" t="s">
-        <v>83</v>
-      </c>
-      <c r="M14" s="52"/>
-    </row>
-    <row r="15" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="1:13" s="49" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>73</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24" t="s">
-        <v>81</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>122</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24" t="s">
-        <v>83</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="47" t="s">
-        <v>82</v>
-      </c>
-      <c r="M17" s="48" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="49" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="47" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="49" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="47" t="s">
-        <v>86</v>
-      </c>
-      <c r="M19" s="51"/>
+      <c r="M19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M18:M19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
@@ -2552,6 +2347,11 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="M18:M19"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
@@ -2572,12 +2372,6 @@
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
@@ -2587,6 +2381,11 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -2597,6 +2396,7 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{541E2DC1-6122-4996-B24A-0D183935EA7A}"/>
@@ -2611,7 +2411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{939411C0-B35B-4901-A0C7-3336E40E2E40}">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
@@ -2639,84 +2439,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
+      <c r="H1" s="39"/>
+      <c r="I1" s="39"/>
+      <c r="J1" s="39"/>
+      <c r="K1" s="39"/>
+      <c r="L1" s="39"/>
+      <c r="M1" s="39"/>
+      <c r="N1" s="39"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="40" t="str">
+      <c r="B2" s="49" t="str">
         <f>+'Listado Objetos de Dominio'!A6</f>
         <v>TipoPago</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
-      <c r="J2" s="40"/>
-      <c r="K2" s="40"/>
-      <c r="L2" s="40"/>
-      <c r="M2" s="41"/>
+      <c r="C2" s="49"/>
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+      <c r="G2" s="49"/>
+      <c r="H2" s="49"/>
+      <c r="I2" s="49"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="50"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="42" t="str">
+      <c r="B3" s="51" t="str">
         <f>+'Listado Objetos de Dominio'!B6</f>
         <v>Objeto de dominio que contiene la informacion de los tipos de pagos que recibe el spa</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="42"/>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="43"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
+      <c r="H3" s="51"/>
+      <c r="I3" s="51"/>
+      <c r="J3" s="51"/>
+      <c r="K3" s="51"/>
+      <c r="L3" s="51"/>
+      <c r="M3" s="52"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="32"/>
+      <c r="C4" s="41"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E4" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="35" t="s">
+      <c r="F4" s="36"/>
+      <c r="G4" s="44" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="35"/>
+      <c r="H4" s="44"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -2726,52 +2526,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="38" t="s">
+      <c r="L4" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="39" t="s">
+      <c r="M4" s="48" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="41" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="32" t="s">
+      <c r="C5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="28" t="s">
+      <c r="D5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="27" t="s">
+      <c r="E5" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="33" t="s">
+      <c r="F5" s="36"/>
+      <c r="G5" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="33"/>
-      <c r="I5" s="36" t="s">
+      <c r="H5" s="42"/>
+      <c r="I5" s="45" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="37" t="s">
+      <c r="J5" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="34" t="s">
+      <c r="K5" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="L5" s="47"/>
+      <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="31"/>
-      <c r="B6" s="32"/>
-      <c r="C6" s="32"/>
-      <c r="D6" s="29"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="38"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -2784,346 +2584,341 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="36"/>
-      <c r="J6" s="37"/>
-      <c r="K6" s="34"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
-    </row>
-    <row r="7" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="46" t="s">
+      <c r="I6" s="45"/>
+      <c r="J6" s="46"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="47"/>
+      <c r="M6" s="48"/>
+    </row>
+    <row r="7" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H7" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="30"/>
+      <c r="L7" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M8" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="31"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="23" t="s">
+        <v>91</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>108</v>
+      </c>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="24" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="K10" s="30"/>
+      <c r="L10" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M10" s="24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="23" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" s="23" t="s">
+        <v>107</v>
+      </c>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="M11" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" s="25" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="H12" s="23" t="s">
+        <v>110</v>
+      </c>
+      <c r="I12" s="32"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="35"/>
+    </row>
+    <row r="13" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="C13" s="30" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="H13" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="K13" s="30"/>
+      <c r="L13" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M13" s="33" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" s="32"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="32"/>
+      <c r="J14" s="32"/>
+      <c r="K14" s="32"/>
+      <c r="L14" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="M14" s="33"/>
+    </row>
+    <row r="15" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="32"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="H15" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="32"/>
+      <c r="J15" s="32"/>
+      <c r="K15" s="32"/>
+      <c r="L15" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="M15" s="34" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" s="25" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B16" s="31"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="31"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="31"/>
+      <c r="K16" s="31"/>
+      <c r="L16" s="31"/>
+      <c r="M16" s="35"/>
+    </row>
+    <row r="17" spans="1:13" s="25" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="30" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30" t="s">
         <v>96</v>
       </c>
-      <c r="C7" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="D7" s="24" t="s">
+      <c r="H17" s="30" t="s">
+        <v>112</v>
+      </c>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30" t="s">
+        <v>98</v>
+      </c>
+      <c r="K17" s="30"/>
+      <c r="L17" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="M17" s="24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="25" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="22" t="s">
         <v>38</v>
       </c>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="47" t="s">
+      <c r="B18" s="32"/>
+      <c r="C18" s="32"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="32"/>
+      <c r="K18" s="32"/>
+      <c r="L18" s="23" t="s">
         <v>100</v>
       </c>
-      <c r="H7" s="47" t="s">
-        <v>117</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24" t="s">
-        <v>108</v>
-      </c>
-      <c r="K7" s="24"/>
-      <c r="L7" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="M7" s="48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="25"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="47" t="s">
+      <c r="M18" s="34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="25" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="22" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="23" t="s">
         <v>101</v>
       </c>
-      <c r="H8" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="I8" s="25"/>
-      <c r="J8" s="25"/>
-      <c r="K8" s="25"/>
-      <c r="L8" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="I9" s="26"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="26"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="48" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="24" t="s">
-        <v>114</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="47" t="s">
-        <v>103</v>
-      </c>
-      <c r="H10" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="K10" s="24"/>
-      <c r="L10" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="M10" s="48" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="25"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="25"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="47" t="s">
-        <v>101</v>
-      </c>
-      <c r="H11" s="47" t="s">
-        <v>118</v>
-      </c>
-      <c r="I11" s="25"/>
-      <c r="J11" s="25"/>
-      <c r="K11" s="25"/>
-      <c r="L11" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" s="50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" s="49" customFormat="1" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="47" t="s">
-        <v>104</v>
-      </c>
-      <c r="H12" s="47" t="s">
-        <v>121</v>
-      </c>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="51"/>
-    </row>
-    <row r="13" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>98</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>115</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24" t="s">
-        <v>105</v>
-      </c>
-      <c r="H13" s="24" t="s">
-        <v>41</v>
-      </c>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="K13" s="24"/>
-      <c r="L13" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="M13" s="52" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="25"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="M14" s="52"/>
-    </row>
-    <row r="15" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="25"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="24" t="s">
-        <v>106</v>
-      </c>
-      <c r="H15" s="24" t="s">
-        <v>42</v>
-      </c>
-      <c r="I15" s="25"/>
-      <c r="J15" s="25"/>
-      <c r="K15" s="25"/>
-      <c r="L15" s="24" t="s">
-        <v>112</v>
-      </c>
-      <c r="M15" s="50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" s="49" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="46" t="s">
-        <v>33</v>
-      </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="51"/>
-    </row>
-    <row r="17" spans="1:13" s="49" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="46" t="s">
-        <v>31</v>
-      </c>
-      <c r="B17" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="24" t="s">
-        <v>116</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24" t="s">
-        <v>107</v>
-      </c>
-      <c r="H17" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="K17" s="24"/>
-      <c r="L17" s="47" t="s">
-        <v>108</v>
-      </c>
-      <c r="M17" s="48" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" s="49" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="25"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="25"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="25"/>
-      <c r="K18" s="25"/>
-      <c r="L18" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="50" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" s="49" customFormat="1" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="46" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="26"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="26"/>
-      <c r="L19" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="51"/>
+      <c r="M19" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="62">
-    <mergeCell ref="H17:H19"/>
-    <mergeCell ref="I17:I19"/>
-    <mergeCell ref="J17:J19"/>
-    <mergeCell ref="K17:K19"/>
-    <mergeCell ref="M18:M19"/>
     <mergeCell ref="B17:B19"/>
     <mergeCell ref="C17:C19"/>
     <mergeCell ref="D17:D19"/>
@@ -3136,6 +2931,11 @@
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="L15:L16"/>
     <mergeCell ref="M15:M16"/>
+    <mergeCell ref="H17:H19"/>
+    <mergeCell ref="I17:I19"/>
+    <mergeCell ref="J17:J19"/>
+    <mergeCell ref="K17:K19"/>
+    <mergeCell ref="M18:M19"/>
     <mergeCell ref="M11:M12"/>
     <mergeCell ref="B13:B16"/>
     <mergeCell ref="C13:C16"/>
@@ -3156,12 +2956,6 @@
     <mergeCell ref="J10:J12"/>
     <mergeCell ref="K10:K12"/>
     <mergeCell ref="L11:L12"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="K7:K9"/>
@@ -3171,6 +2965,11 @@
     <mergeCell ref="G5:H5"/>
     <mergeCell ref="I5:I6"/>
     <mergeCell ref="J5:J6"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
@@ -3181,6 +2980,7 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
+    <mergeCell ref="K5:K6"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F03AE9BE-FFE7-4FE1-AC67-65494A8E52C7}"/>

--- a/SpaOnline/EventStorming/Pagos - Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Pagos - Event Storming.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB1262CE-944F-43DC-B8BA-0039FD577B9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1664A7-87B7-47C3-9C6A-57152CA3DE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="1" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="2" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -726,22 +726,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -792,16 +792,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="B10" sqref="B10:M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1383,10 +1383,10 @@
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="36" t="s">
+      <c r="E4" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="36"/>
+      <c r="F4" s="53"/>
       <c r="G4" s="44" t="s">
         <v>13</v>
       </c>
@@ -1421,10 +1421,10 @@
       <c r="D5" s="37" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="36" t="s">
+      <c r="E5" s="53" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="36"/>
+      <c r="F5" s="53"/>
       <c r="G5" s="42" t="s">
         <v>7</v>
       </c>
@@ -1465,7 +1465,7 @@
       <c r="M6" s="48"/>
     </row>
     <row r="7" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="54" t="s">
         <v>29</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -1496,7 +1496,7 @@
       <c r="M7" s="34"/>
     </row>
     <row r="8" spans="1:14" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="33"/>
+      <c r="A8" s="56"/>
       <c r="B8" s="29"/>
       <c r="C8" s="29"/>
       <c r="D8" s="29"/>
@@ -1512,10 +1512,10 @@
       <c r="J8" s="29"/>
       <c r="K8" s="29"/>
       <c r="L8" s="29"/>
-      <c r="M8" s="56"/>
+      <c r="M8" s="35"/>
     </row>
     <row r="9" spans="1:14" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="32"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="30"/>
       <c r="C9" s="30"/>
       <c r="D9" s="30"/>
@@ -1531,10 +1531,10 @@
       <c r="J9" s="30"/>
       <c r="K9" s="30"/>
       <c r="L9" s="30"/>
-      <c r="M9" s="35"/>
+      <c r="M9" s="36"/>
     </row>
     <row r="10" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="54" t="s">
         <v>29</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -1562,10 +1562,10 @@
       <c r="L10" s="28" t="s">
         <v>40</v>
       </c>
-      <c r="M10" s="53"/>
+      <c r="M10" s="31"/>
     </row>
     <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="32"/>
+      <c r="A11" s="55"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
       <c r="D11" s="29"/>
@@ -1577,10 +1577,10 @@
       <c r="J11" s="29"/>
       <c r="K11" s="29"/>
       <c r="L11" s="29"/>
-      <c r="M11" s="54"/>
+      <c r="M11" s="32"/>
     </row>
     <row r="12" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31" t="s">
+      <c r="A12" s="54" t="s">
         <v>30</v>
       </c>
       <c r="B12" s="29"/>
@@ -1598,10 +1598,10 @@
       <c r="J12" s="29"/>
       <c r="K12" s="29"/>
       <c r="L12" s="29"/>
-      <c r="M12" s="54"/>
+      <c r="M12" s="32"/>
     </row>
     <row r="13" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="32"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="30"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
@@ -1613,15 +1613,25 @@
       <c r="J13" s="30"/>
       <c r="K13" s="30"/>
       <c r="L13" s="30"/>
-      <c r="M13" s="55"/>
+      <c r="M13" s="33"/>
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
+    <mergeCell ref="D10:D13"/>
+    <mergeCell ref="E10:E13"/>
+    <mergeCell ref="F10:F13"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
@@ -1638,29 +1648,19 @@
     <mergeCell ref="B4:C4"/>
     <mergeCell ref="E4:F4"/>
     <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="D5:D6"/>
     <mergeCell ref="K7:K9"/>
     <mergeCell ref="J7:J9"/>
     <mergeCell ref="I7:I9"/>
     <mergeCell ref="E7:E9"/>
     <mergeCell ref="F7:F9"/>
     <mergeCell ref="D7:D9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
     <mergeCell ref="J10:J13"/>
     <mergeCell ref="K10:K13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
-    <mergeCell ref="D10:D13"/>
-    <mergeCell ref="E10:E13"/>
-    <mergeCell ref="F10:F13"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A7:A9"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -1672,12 +1672,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1825,15 +1822,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1857,18 +1866,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/SpaOnline/EventStorming/Pagos - Event Storming.xlsx
+++ b/SpaOnline/EventStorming/Pagos - Event Storming.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DOO\DOO\SpaOnline\EventStorming\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\luis ospina\OneDrive\Documentos\GitHub\DOO\SpaOnline\EventStorming\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1664A7-87B7-47C3-9C6A-57152CA3DE2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34A17612-D8D5-485B-ADE8-9C5207367CAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="10455" windowHeight="10905" firstSheet="2" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" firstSheet="2" activeTab="2" xr2:uid="{36012E7C-B3F4-482B-AC16-7CCB81B9AE88}"/>
   </bookViews>
   <sheets>
     <sheet name="Flujo de eventos en el tiempo" sheetId="61" r:id="rId1"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="49">
   <si>
     <t>Descripción</t>
   </si>
@@ -192,9 +192,6 @@
     <t>Pol-Pagos-002</t>
   </si>
   <si>
-    <t>Pol-Pagos-003</t>
-  </si>
-  <si>
     <t>Pol-Pagos-004</t>
   </si>
   <si>
@@ -211,9 +208,6 @@
   </si>
   <si>
     <t>Los datos del nuevo pago deben ser valido a nivel de tipo de dato, longitud, obligatoriedad, formato y rango</t>
-  </si>
-  <si>
-    <t>Debe de exisitir una sucursal a la cual debe estar asociado el pago</t>
   </si>
   <si>
     <t xml:space="preserve">Pol-Pagos-005 </t>
@@ -717,6 +711,15 @@
     <xf numFmtId="0" fontId="0" fillId="17" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -724,30 +727,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyAlignment="1">
@@ -795,13 +774,28 @@
     <xf numFmtId="0" fontId="4" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1237,7 +1231,7 @@
         <v>28</v>
       </c>
       <c r="B2" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C2" s="26"/>
       <c r="D2" s="27"/>
@@ -1286,7 +1280,7 @@
   <dimension ref="A1:N13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:M13"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1313,84 +1307,84 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="34" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
-      <c r="H1" s="39"/>
-      <c r="I1" s="39"/>
-      <c r="J1" s="39"/>
-      <c r="K1" s="39"/>
-      <c r="L1" s="39"/>
-      <c r="M1" s="39"/>
-      <c r="N1" s="39"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="49" t="str">
+      <c r="B2" s="44" t="str">
         <f>'Listado Objetos de Dominio'!$A$4</f>
         <v>Pagos</v>
       </c>
-      <c r="C2" s="49"/>
-      <c r="D2" s="49"/>
-      <c r="E2" s="49"/>
-      <c r="F2" s="49"/>
-      <c r="G2" s="49"/>
-      <c r="H2" s="49"/>
-      <c r="I2" s="49"/>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="50"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="44"/>
+      <c r="H2" s="44"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="44"/>
+      <c r="K2" s="44"/>
+      <c r="L2" s="44"/>
+      <c r="M2" s="45"/>
       <c r="N2" s="3"/>
     </row>
     <row r="3" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="51" t="str">
+      <c r="B3" s="46" t="str">
         <f>'Listado Objetos de Dominio'!$B$4</f>
         <v>Objeto de dominio que contiene la informacion de los pagos que recibe el Spa</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
-      <c r="H3" s="51"/>
-      <c r="I3" s="51"/>
-      <c r="J3" s="51"/>
-      <c r="K3" s="51"/>
-      <c r="L3" s="51"/>
-      <c r="M3" s="52"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="47"/>
       <c r="N3" s="4"/>
     </row>
     <row r="4" spans="1:14" ht="29.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="36" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="41"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="53" t="s">
+      <c r="E4" s="48" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="53"/>
-      <c r="G4" s="44" t="s">
+      <c r="F4" s="48"/>
+      <c r="G4" s="39" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="44"/>
+      <c r="H4" s="39"/>
       <c r="I4" s="9" t="s">
         <v>14</v>
       </c>
@@ -1400,52 +1394,52 @@
       <c r="K4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="48" t="s">
+      <c r="M4" s="43" t="s">
         <v>18</v>
       </c>
       <c r="N4" s="4"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="40" t="s">
+      <c r="A5" s="35" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="41" t="s">
+      <c r="C5" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="D5" s="37" t="s">
+      <c r="D5" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="E5" s="53" t="s">
+      <c r="E5" s="48" t="s">
         <v>20</v>
       </c>
-      <c r="F5" s="53"/>
-      <c r="G5" s="42" t="s">
+      <c r="F5" s="48"/>
+      <c r="G5" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="H5" s="42"/>
-      <c r="I5" s="45" t="s">
+      <c r="H5" s="37"/>
+      <c r="I5" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="J5" s="46" t="s">
+      <c r="J5" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="43" t="s">
+      <c r="K5" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="47"/>
-      <c r="M5" s="48"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="43"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="38"/>
+      <c r="A6" s="35"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="56"/>
       <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
@@ -1458,177 +1452,179 @@
       <c r="H6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="I6" s="45"/>
-      <c r="J6" s="46"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="48"/>
+      <c r="I6" s="40"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="43"/>
     </row>
     <row r="7" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="54" t="s">
+      <c r="A7" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B7" s="28" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" s="28" t="s">
+      <c r="B7" s="31" t="s">
         <v>48</v>
       </c>
-      <c r="D7" s="28" t="s">
+      <c r="C7" s="31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="G7" s="22" t="s">
         <v>36</v>
       </c>
       <c r="H7" s="22" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="31"/>
+      <c r="J7" s="31" t="s">
+        <v>47</v>
+      </c>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="M7" s="52"/>
+    </row>
+    <row r="8" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30"/>
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="31" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="31" t="s">
         <v>43</v>
       </c>
-      <c r="I7" s="28"/>
-      <c r="J7" s="28" t="s">
-        <v>49</v>
-      </c>
-      <c r="K7" s="28"/>
-      <c r="L7" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="M7" s="34"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="53"/>
     </row>
-    <row r="8" spans="1:14" s="23" customFormat="1" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8" s="56"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="35"/>
-    </row>
-    <row r="9" spans="1:14" s="23" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="30"/>
-      <c r="C9" s="30"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="22" t="s">
-        <v>45</v>
-      </c>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="36"/>
+    <row r="9" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="33"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="54"/>
     </row>
     <row r="10" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="54" t="s">
+      <c r="A10" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="31" t="s">
         <v>35</v>
       </c>
-      <c r="C10" s="28" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="28" t="s">
+      <c r="C10" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28" t="s">
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="31" t="s">
+        <v>33</v>
+      </c>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31" t="s">
         <v>39</v>
       </c>
-      <c r="H10" s="28" t="s">
-        <v>33</v>
-      </c>
-      <c r="I10" s="28"/>
-      <c r="J10" s="28" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="28"/>
-      <c r="L10" s="28" t="s">
-        <v>40</v>
-      </c>
-      <c r="M10" s="31"/>
+      <c r="M10" s="49"/>
     </row>
     <row r="11" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="32"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="32"/>
+      <c r="J11" s="32"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="50"/>
     </row>
     <row r="12" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="54" t="s">
+      <c r="A12" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" s="28" t="s">
+      <c r="B12" s="32"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="32"/>
+      <c r="I12" s="32"/>
+      <c r="J12" s="32"/>
+      <c r="K12" s="32"/>
+      <c r="L12" s="32"/>
+      <c r="M12" s="50"/>
     </row>
     <row r="13" spans="1:14" s="23" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="30"/>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="33"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="33"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+      <c r="L13" s="33"/>
+      <c r="M13" s="51"/>
     </row>
   </sheetData>
-  <mergeCells count="44">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="B7:B9"/>
-    <mergeCell ref="C7:C9"/>
-    <mergeCell ref="I10:I13"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="B10:B13"/>
-    <mergeCell ref="C10:C13"/>
+  <mergeCells count="46">
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="L7:L9"/>
+    <mergeCell ref="M10:M13"/>
+    <mergeCell ref="M7:M9"/>
+    <mergeCell ref="L10:L13"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="K7:K9"/>
+    <mergeCell ref="J7:J9"/>
+    <mergeCell ref="I7:I9"/>
+    <mergeCell ref="E7:E9"/>
+    <mergeCell ref="F7:F9"/>
+    <mergeCell ref="D7:D9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="K10:K13"/>
     <mergeCell ref="D10:D13"/>
     <mergeCell ref="E10:E13"/>
     <mergeCell ref="F10:F13"/>
@@ -1645,22 +1641,18 @@
     <mergeCell ref="M4:M6"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="B3:M3"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="L7:L9"/>
-    <mergeCell ref="M10:M13"/>
-    <mergeCell ref="M7:M9"/>
-    <mergeCell ref="L10:L13"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="K7:K9"/>
-    <mergeCell ref="J7:J9"/>
-    <mergeCell ref="I7:I9"/>
-    <mergeCell ref="E7:E9"/>
-    <mergeCell ref="F7:F9"/>
-    <mergeCell ref="D7:D9"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="K10:K13"/>
+    <mergeCell ref="I10:I13"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="C7:C9"/>
+    <mergeCell ref="B10:B13"/>
+    <mergeCell ref="C10:C13"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A1" location="'Objetos de Dominio'!A1" display="Volver al inicio" xr:uid="{F92E8141-0BAA-4CFF-A2AA-790349ADA214}"/>
@@ -1672,9 +1664,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1822,27 +1817,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
-    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1866,9 +1849,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6724C681-8A04-4D66-BB1C-57F7466573C0}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C2038022-656B-4A1B-A485-51A1972238BD}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="ff57c5a0-3efd-4333-8513-2b909ca014ae"/>
+    <ds:schemaRef ds:uri="0d2457a1-fe8a-4cb2-a5c3-c59e87d2493e"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
